--- a/10v10/11/Alamo-Cup/TXST_TEXAS.xlsx
+++ b/10v10/11/Alamo-Cup/TXST_TEXAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\live-stats\11\Alamo-Cup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v10\11\Alamo-Cup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B508685-8948-4A07-9089-A870BD2AFE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02D8159-29F2-4B32-AC9C-7EE1B50F1A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="149">
   <si>
     <t>A</t>
   </si>
@@ -169,9 +171,6 @@
     <t>0712</t>
   </si>
   <si>
-    <t>1208</t>
-  </si>
-  <si>
     <t>EP</t>
   </si>
   <si>
@@ -181,13 +180,7 @@
     <t>ED</t>
   </si>
   <si>
-    <t>1449</t>
-  </si>
-  <si>
     <t>1603</t>
-  </si>
-  <si>
-    <t>1658</t>
   </si>
   <si>
     <t>S</t>
@@ -208,25 +201,16 @@
     <t>YA17</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>TD</t>
   </si>
   <si>
     <t>22,13</t>
   </si>
   <si>
-    <t>2650</t>
-  </si>
-  <si>
     <t>ABBY LUM</t>
   </si>
   <si>
     <t>TIM NGUYEN</t>
-  </si>
-  <si>
-    <t>11,22</t>
   </si>
   <si>
     <t>RCB</t>
@@ -257,6 +241,243 @@
   </si>
   <si>
     <t>TJ MARTINEZ</t>
+  </si>
+  <si>
+    <t>SOPHIA DESALVO</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0224</t>
+  </si>
+  <si>
+    <t>0231</t>
+  </si>
+  <si>
+    <t>0304</t>
+  </si>
+  <si>
+    <t>0346</t>
+  </si>
+  <si>
+    <t>0414</t>
+  </si>
+  <si>
+    <t>0420</t>
+  </si>
+  <si>
+    <t>0454</t>
+  </si>
+  <si>
+    <t>0515</t>
+  </si>
+  <si>
+    <t>0614</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>0718</t>
+  </si>
+  <si>
+    <t>0731</t>
+  </si>
+  <si>
+    <t>0800</t>
+  </si>
+  <si>
+    <t>0856</t>
+  </si>
+  <si>
+    <t>0912</t>
+  </si>
+  <si>
+    <t>0959</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>1253</t>
+  </si>
+  <si>
+    <t>1355</t>
+  </si>
+  <si>
+    <t>1410</t>
+  </si>
+  <si>
+    <t>1442</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
+    <t>1736</t>
+  </si>
+  <si>
+    <t>1659</t>
+  </si>
+  <si>
+    <t>1643</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1544</t>
+  </si>
+  <si>
+    <t>1813</t>
+  </si>
+  <si>
+    <t>1840</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2319</t>
+  </si>
+  <si>
+    <t>2338</t>
+  </si>
+  <si>
+    <t>2334</t>
+  </si>
+  <si>
+    <t>2350</t>
+  </si>
+  <si>
+    <t>2359</t>
+  </si>
+  <si>
+    <t>2414</t>
+  </si>
+  <si>
+    <t>2441</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2551</t>
+  </si>
+  <si>
+    <t>2608</t>
+  </si>
+  <si>
+    <t>2630</t>
+  </si>
+  <si>
+    <t>2643</t>
+  </si>
+  <si>
+    <t>2725</t>
+  </si>
+  <si>
+    <t>2817</t>
+  </si>
+  <si>
+    <t>2857</t>
+  </si>
+  <si>
+    <t>2903</t>
+  </si>
+  <si>
+    <t>3056</t>
+  </si>
+  <si>
+    <t>22,11</t>
+  </si>
+  <si>
+    <t>3105</t>
+  </si>
+  <si>
+    <t>3125</t>
+  </si>
+  <si>
+    <t>3150</t>
+  </si>
+  <si>
+    <t>3222</t>
+  </si>
+  <si>
+    <t>3257</t>
+  </si>
+  <si>
+    <t>3245</t>
+  </si>
+  <si>
+    <t>OT-0453</t>
+  </si>
+  <si>
+    <t>OT-0415</t>
+  </si>
+  <si>
+    <t>OT-0359</t>
+  </si>
+  <si>
+    <t>OT-0234</t>
+  </si>
+  <si>
+    <t>OT-0303</t>
+  </si>
+  <si>
+    <t>OT-0252</t>
+  </si>
+  <si>
+    <t>OT-0258</t>
   </si>
 </sst>
 </file>
@@ -548,10 +769,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,17 +784,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="77" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -821,21 +1042,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -848,140 +1069,140 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="23">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="27">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
         <v>21</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="29" t="str">
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="28" t="str">
         <f>IF(COUNTIF($A$7:$X$59,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$X$59,"OCA"),"^","")&amp;IF(COUNTIF($R$7:$X$59,"2CA"),"!","")</f>
         <v>^</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="30" t="str">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="19" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>240^</v>
       </c>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="25"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="28"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="24"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="23" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="23">
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="27">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
         <v>17</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="29" t="str">
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="28" t="str">
         <f>IF(COUNTIF($A$7:$R$59,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$59,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$59,"2CB"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="30" t="str">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="19" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>200*</v>
       </c>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="25"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="24"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -1024,39 +1245,53 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="J7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="Y7" s="18"/>
       <c r="Z7" s="1"/>
     </row>
@@ -1155,36 +1390,48 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="P10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="4" t="s">
         <v>0</v>
@@ -1193,7 +1440,7 @@
         <v>39</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="W10" s="7" t="s">
         <v>2</v>
@@ -1307,42 +1554,58 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="Y13" s="18"/>
       <c r="Z13" s="1"/>
     </row>
@@ -1447,47 +1710,57 @@
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="8"/>
+      <c r="R16" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="5"/>
+      <c r="U16" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="V16" s="6"/>
       <c r="W16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="Y16" s="18"/>
       <c r="Z16" s="1"/>
@@ -1519,7 +1792,7 @@
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17" s="10">
         <v>8</v>
@@ -1528,7 +1801,7 @@
         <v>19</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" s="10">
         <v>41</v>
@@ -1555,7 +1828,7 @@
         <v>50</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W17" s="10">
         <v>19</v>
@@ -1599,46 +1872,58 @@
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R19" s="8"/>
+      <c r="R19" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="V19" s="6"/>
       <c r="W19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X19" s="8"/>
+      <c r="X19" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="Y19" s="18"/>
       <c r="Z19" s="1"/>
     </row>
@@ -1701,7 +1986,7 @@
       </c>
       <c r="U20" s="11"/>
       <c r="V20" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W20" s="10">
         <v>24</v>
@@ -1742,47 +2027,63 @@
     </row>
     <row r="22" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R22" s="8"/>
+      <c r="R22" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U22" s="5"/>
+      <c r="U22" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="V22" s="6"/>
       <c r="W22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X22" s="8"/>
+      <c r="X22" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="Y22" s="18"/>
       <c r="Z22" s="1"/>
     </row>
@@ -1804,10 +2105,10 @@
         <v>24</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="9" t="s">
@@ -1890,45 +2191,59 @@
         <v>0</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="5"/>
+      <c r="O25" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="8"/>
+      <c r="R25" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="S25" s="3"/>
       <c r="T25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U25" s="5"/>
+      <c r="U25" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="V25" s="6"/>
       <c r="W25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X25" s="8"/>
+      <c r="X25" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
@@ -1937,7 +2252,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
@@ -1952,10 +2267,10 @@
         <v>8</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>55</v>
+        <v>3</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="9" t="s">
@@ -1989,8 +2304,8 @@
       <c r="T26" s="10">
         <v>14</v>
       </c>
-      <c r="U26" s="11" t="s">
-        <v>55</v>
+      <c r="U26" s="11">
+        <v>25</v>
       </c>
       <c r="V26" s="9" t="s">
         <v>32</v>
@@ -2037,43 +2352,57 @@
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="5"/>
+      <c r="O28" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R28" s="8"/>
+      <c r="R28" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="S28" s="3"/>
       <c r="T28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U28" s="5"/>
+      <c r="U28" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="V28" s="6"/>
       <c r="W28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
@@ -2113,7 +2442,7 @@
         <v>36</v>
       </c>
       <c r="N29" s="10">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="9" t="s">
@@ -2133,13 +2462,13 @@
         <v>7</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W29" s="10">
         <v>11</v>
       </c>
       <c r="X29" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
@@ -2177,44 +2506,60 @@
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="J31" s="6"/>
       <c r="K31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O31" s="5"/>
+      <c r="O31" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R31" s="8"/>
+      <c r="R31" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="S31" s="3"/>
       <c r="T31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="5"/>
+      <c r="U31" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="V31" s="6"/>
       <c r="W31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X31" s="8"/>
+      <c r="X31" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
@@ -2229,7 +2574,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="10">
         <v>22</v>
@@ -2254,13 +2599,13 @@
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N32" s="10">
         <v>41</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="P32" s="9" t="s">
         <v>36</v>
@@ -2323,17 +2668,23 @@
       <c r="B34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="D34" s="6"/>
       <c r="E34" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="J34" s="6"/>
       <c r="K34" s="7" t="s">
         <v>2</v>
@@ -2343,25 +2694,31 @@
       <c r="N34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O34" s="5"/>
+      <c r="O34" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="P34" s="6"/>
       <c r="Q34" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R34" s="8"/>
+      <c r="R34" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="S34" s="3"/>
       <c r="T34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U34" s="5"/>
+      <c r="U34" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="V34" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W34" s="7" t="s">
         <v>2</v>
       </c>
       <c r="X34" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
@@ -2384,7 +2741,7 @@
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H35" s="10">
         <v>17</v>
@@ -2401,7 +2758,7 @@
       </c>
       <c r="O35" s="11"/>
       <c r="P35" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="10">
         <v>24</v>
@@ -2412,15 +2769,15 @@
       <c r="S35" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="T35" s="10" t="s">
-        <v>55</v>
+      <c r="T35" s="10">
+        <v>7</v>
       </c>
       <c r="U35" s="11"/>
       <c r="V35" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="W35" s="10" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="W35" s="10">
+        <v>9</v>
       </c>
       <c r="X35" s="11"/>
       <c r="Y35" s="1"/>
@@ -2459,37 +2816,47 @@
       <c r="B37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="3"/>
+      <c r="F37" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="J37" s="6"/>
       <c r="K37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L37" s="8"/>
+      <c r="L37" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="M37" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>0</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="7" t="s">
         <v>2</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="4" t="s">
@@ -2535,7 +2902,7 @@
         <v>80</v>
       </c>
       <c r="L38" s="11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>33</v>
@@ -2547,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q38" s="10">
         <v>41</v>
@@ -29332,13 +29699,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R2:W3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:W5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29348,6 +29708,13 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="R2:W3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:W5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29362,8 +29729,8 @@
   </sheetPr>
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29385,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="17"/>
     </row>
@@ -29394,7 +29761,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C3" s="17"/>
     </row>
@@ -29403,7 +29770,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>20</v>
@@ -29550,7 +29917,9 @@
         <v>19</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
@@ -29568,7 +29937,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C23" s="17"/>
     </row>
@@ -29577,7 +29946,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>9</v>
@@ -29588,7 +29957,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>10</v>
